--- a/price_analysis/stock_performance/df_qqq.xlsx
+++ b/price_analysis/stock_performance/df_qqq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,23 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Chg</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>% Chg</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Industry</t>
+          <t>Sector</t>
         </is>
       </c>
     </row>
@@ -484,36 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microsoft Corp</t>
+          <t>Apple Inc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>8.779999999999999</v>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.78%</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>460.15</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(0.19%)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -525,36 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple Inc</t>
+          <t>Microsoft Corp</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>8.59</v>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.55%</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>221.07</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(0.36%)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Consumer Electronics</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -574,28 +545,19 @@
           <t>NVDA</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>7.9</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.09%</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>127.55</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(3.98%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -607,36 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazon.com Inc</t>
+          <t>Broadcom Inc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5.31</v>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.20%</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>197.44</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>(-1.28%)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Internet Retail</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -648,36 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Broadcom Inc</t>
+          <t>Amazon.com Inc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AVGO</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5.08</v>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.20%</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,728.89</t>
+          <t>Internet Retail</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>(4.31%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -697,28 +641,19 @@
           <t>META</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>4.55</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.63%</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>509.86</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>(0.07%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -730,36 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alphabet Inc</t>
+          <t>Tesla Inc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2.78</v>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>185.73</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>(0.26%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -776,31 +702,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GOOG</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2.68</v>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>187.26</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>(0.35%)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -812,36 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tesla Inc</t>
+          <t>Alphabet Inc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2.62</v>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>247.71</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>(7.11%)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Auto Manufacturers</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -861,28 +769,19 @@
           <t>COST</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2.5</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.54%</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>862.25</t>
+          <t>Discount Stores</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>(0.34%)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Discount Stores</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -902,28 +801,19 @@
           <t>NFLX</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1.94</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.91%</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>682.54</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>(0.44%)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -943,28 +833,19 @@
           <t>AMD</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1.7</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>163.61</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>(-0.43%)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -984,28 +865,19 @@
           <t>ADBE</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1.68</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.64%</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>569.77</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>(0.36%)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1017,36 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PepsiCo Inc</t>
+          <t>QUALCOMM Inc</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PEP</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1.5</v>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>162.60</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>(-0.60%)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Beverages - Non-Alcoholic</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1058,36 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>QUALCOMM Inc</t>
+          <t>PepsiCo Inc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>QCOM</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1.49</v>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>203.67</t>
+          <t>Beverages - Non-Alcoholic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>(1.75%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -1107,28 +961,19 @@
           <t>TMUS</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1.4</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>177.52</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-2.47</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>(-1.37%)</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -1140,36 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Linde PLC</t>
+          <t>Applied Materials Inc</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIN</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1.38</v>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>432.78</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>(0.62%)</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Specialty Chemicals</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1181,36 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Applied Materials Inc</t>
+          <t>Linde PLC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AMAT</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1.31</v>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.34%</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>243.16</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>(0.95%)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
     </row>
@@ -1230,28 +1057,19 @@
           <t>CSCO</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1.28</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>47.06</t>
+          <t>Communication Equipment</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>(-0.48%)</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Communication Equipment</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1263,36 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Intuit Inc</t>
+          <t>Texas Instruments Inc</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>INTU</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1.22</v>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>660.43</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>(0.64%)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1304,36 +1113,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Texas Instruments Inc</t>
+          <t>Intuit Inc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TXN</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1.18</v>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.17%</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>198.71</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>(0.15%)</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1353,28 +1153,19 @@
           <t>AMGN</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>1.11</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>308.85</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>(-0.62%)</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1185,19 @@
           <t>ISRG</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1.03</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>433.91</t>
+          <t>Medical Instruments &amp; Supplies</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-4.90</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>(-1.12%)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Medical Instruments &amp; Supplies</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -1427,36 +1209,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Comcast Corp</t>
+          <t>Intel Corp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CMCSA</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38.06</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>(-0.26%)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1468,36 +1241,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Micron Technology Inc</t>
+          <t>Comcast Corp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MU</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.97</v>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>136.18</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>(2.71%)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -1517,28 +1281,19 @@
           <t>LRCX</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0.93</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1,082.45</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>(0.90%)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1550,36 +1305,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Honeywell International Inc</t>
+          <t>Micron Technology Inc</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HON</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0.92</v>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>212.03</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-1.20</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>(-0.57%)</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Conglomerates</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1591,36 +1337,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Booking Holdings Inc</t>
+          <t>Honeywell International Inc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BKNG</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.88</v>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3,915.49</t>
+          <t>Conglomerates</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.72</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>(-0.02%)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Travel Services</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -1632,36 +1369,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Intel Corp</t>
+          <t>Booking Holdings Inc</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INTC</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.88</v>
+          <t>BKNG</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>Travel Services</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>(0.40%)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -1681,28 +1409,19 @@
           <t>VRTX</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0.8100000000000001</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>469.14</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>(-0.98%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -1714,36 +1433,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Regeneron Pharmaceuticals Inc</t>
+          <t>KLA Corp</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>REGN</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0.77</v>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1,022.10</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-22.57</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>(-2.16%)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1763,28 +1473,19 @@
           <t>ADI</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0.75</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>229.33</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>(0.48%)</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1796,36 +1497,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KLA Corp</t>
+          <t>Regeneron Pharmaceuticals Inc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>KLAC</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0.74</v>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>852.05</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>(1.54%)</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -1845,28 +1537,19 @@
           <t>PANW</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0.74</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>340.88</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>(0.13%)</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1878,36 +1561,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Automatic Data Processing Inc</t>
+          <t>ASML Holding NV</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0.64</v>
+          <t>ASML</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>236.90</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>(0.11%)</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Staffing &amp; Employment Services</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -1919,36 +1593,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASML Holding NV</t>
+          <t>Automatic Data Processing Inc</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ASML</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0.63</v>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1,070.80</t>
+          <t>Staffing &amp; Employment Services</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>22.91</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>(2.19%)</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -1968,28 +1633,19 @@
           <t>SNPS</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0.62</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>607.53</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-2.13</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>(-0.35%)</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2001,36 +1657,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Crowdstrike Holdings Inc</t>
+          <t>PDD Holdings Inc ADR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CRWD</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0.6</v>
+          <t>PDD</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>386.77</t>
+          <t>Internet Retail</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>(0.45%)</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -2042,36 +1689,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PDD Holdings Inc ADR</t>
+          <t>Crowdstrike Holdings Inc</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PDD</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0.59</v>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>137.17</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>(2.46%)</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Internet Retail</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2091,28 +1729,19 @@
           <t>MDLZ</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>0.58</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>66.49</t>
+          <t>Confectioners</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>(0.70%)</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Confectioners</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -2124,36 +1753,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Starbucks Corp</t>
+          <t>MercadoLibre Inc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SBUX</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.58</v>
+          <t>MELI</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>76.26</t>
+          <t>Internet Retail</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-0.57</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>(-0.74%)</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Restaurants</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -2165,36 +1785,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gilead Sciences Inc</t>
+          <t>Cadence Design Systems Inc</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GILD</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0.57</v>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-1.70</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>(-2.49%)</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2206,36 +1817,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cadence Design Systems Inc</t>
+          <t>Gilead Sciences Inc</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CDNS</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0.57</v>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>315.00</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-1.78</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>(-0.56%)</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -2247,36 +1849,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MercadoLibre Inc</t>
+          <t>Starbucks Corp</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MELI</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0.54</v>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1,590.53</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-5.95</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>(-0.37%)</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Internet Retail</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -2296,28 +1889,19 @@
           <t>CTAS</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>0.47</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>702.23</t>
+          <t>Specialty Business Services</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-2.11</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>(-0.30%)</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Specialty Business Services</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -2329,36 +1913,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marriott International Inc/MD</t>
+          <t>NXP Semiconductors NV</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MAR</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0.46</v>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>240.13</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>(0.06%)</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Lodging</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2370,36 +1945,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NXP Semiconductors NV</t>
+          <t>Constellation Energy Corp</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NXPI</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0.45</v>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>273.78</t>
+          <t>Utilities - Renewable</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>(0.64%)</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
@@ -2411,36 +1977,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Airbnb Inc</t>
+          <t>Marriott International Inc/MD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ABNB</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0.45</v>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>152.57</t>
+          <t>Lodging</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-1.78</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>(-1.15%)</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Travel Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -2452,36 +2009,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CSX Corp</t>
+          <t>Airbnb Inc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CSX</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0.44</v>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>33.55</t>
+          <t>Travel Services</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-0.21</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>(-0.64%)</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Railroads</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -2493,36 +2041,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Constellation Energy Corp</t>
+          <t>Marvell Technology Inc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CEG</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0.43</v>
+          <t>MRVL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>209.22</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>(1.49%)</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Utilities - Renewable</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2534,36 +2073,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Marvell Technology Inc</t>
+          <t>CSX Corp</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MRVL</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0.41</v>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>71.88</t>
+          <t>Railroads</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>(0.38%)</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -2583,28 +2113,19 @@
           <t>PYPL</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>0.4</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>59.57</t>
+          <t>Credit Services</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>(1.02%)</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Credit Services</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
@@ -2616,36 +2137,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Roper Technologies Inc</t>
+          <t>O'Reilly Automotive Inc</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ROP</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4</v>
+          <t>ORLY</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>560.45</t>
+          <t>Specialty Retail</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>(-0.47%)</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -2657,36 +2169,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O'Reilly Automotive Inc</t>
+          <t>Roper Technologies Inc</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ORLY</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0.4</v>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1,019.69</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-17.37</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>(-1.67%)</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Specialty Retail</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2706,28 +2209,19 @@
           <t>PCAR</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>0.36</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>102.07</t>
+          <t>Farm &amp; Heavy Construction Machinery</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>(1.15%)</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Farm &amp; Heavy Construction Machinery</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -2747,28 +2241,19 @@
           <t>ADSK</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>0.35</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>246.31</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-1.56</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>(-0.63%)</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2780,36 +2265,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Monster Beverage Corp</t>
+          <t>Copart Inc</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MNST</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0.35</v>
+          <t>CPRT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>49.06</t>
+          <t>Specialty Business Services</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>(-0.57%)</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Beverages - Non-Alcoholic</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -2821,36 +2297,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Copart Inc</t>
+          <t>Monster Beverage Corp</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CPRT</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0.34</v>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>53.73</t>
+          <t>Beverages - Non-Alcoholic</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-0.96</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>(-1.76%)</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Specialty Business Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -2870,28 +2337,19 @@
           <t>MCHP</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>0.33</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>(1.81%)</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2911,28 +2369,19 @@
           <t>ROST</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>0.33</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>143.99</t>
+          <t>Apparel Retail</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>(-0.28%)</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Apparel Retail</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -2952,28 +2401,19 @@
           <t>WDAY</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>0.32</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>225.51</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-1.25</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>(-0.55%)</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -2993,28 +2433,19 @@
           <t>AEP</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>0.31</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>87.47</t>
+          <t>Utilities - Regulated Electric</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>(-0.18%)</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Utilities - Regulated Electric</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
@@ -3034,28 +2465,19 @@
           <t>FTNT</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>0.3</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>(-0.48%)</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -3067,36 +2489,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AstraZeneca PLC ADR</t>
+          <t>Trade Desk Inc/The</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AZN</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0.3</v>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>(-0.23%)</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -3108,36 +2521,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dexcom Inc</t>
+          <t>AstraZeneca PLC ADR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DXCM</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0.3</v>
+          <t>AZN</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>110.90</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-1.59</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>(-1.41%)</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Medical Devices</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -3149,36 +2553,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Keurig Dr Pepper Inc</t>
+          <t>Moderna Inc</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>KDP</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0.3</v>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>32.93</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>(0.44%)</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Beverages - Non-Alcoholic</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -3190,36 +2585,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Moderna Inc</t>
+          <t>Dexcom Inc</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MRNA</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0.3</v>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>115.95</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-1.12</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>(-0.96%)</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -3231,36 +2617,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Trade Desk Inc/The</t>
+          <t>Keurig Dr Pepper Inc</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TTD</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0.29</v>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>99.34</t>
+          <t>Beverages - Non-Alcoholic</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>(1.02%)</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -3280,28 +2657,19 @@
           <t>CHTR</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>0.28</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-3.50</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>(-1.15%)</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -3321,28 +2689,19 @@
           <t>PAYX</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>0.28</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>117.43</t>
+          <t>Staffing &amp; Employment Services</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-0.95</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>(-0.80%)</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Staffing &amp; Employment Services</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -3362,28 +2721,19 @@
           <t>DASH</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0.28</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>107.53</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>(0.07%)</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -3395,36 +2745,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Datadog Inc</t>
+          <t>IDEXX Laboratories Inc</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DDOG</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0.27</v>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.26%</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>130.99</t>
+          <t>Diagnostics &amp; Research</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.76</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>(-0.58%)</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -3436,36 +2777,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IDEXX Laboratories Inc</t>
+          <t>Verisk Analytics Inc</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>IDXX</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0.26</v>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>477.25</t>
+          <t>Consulting Services</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>(0.00%)</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Diagnostics &amp; Research</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -3477,36 +2809,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Old Dominion Freight Line Inc</t>
+          <t>Datadog Inc</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ODFL</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0.26</v>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>182.00</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-0.17</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>(-0.09%)</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Trucking</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -3526,28 +2849,19 @@
           <t>KHC</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>0.26</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>(0.39%)</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Packaged Foods</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -3559,36 +2873,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Verisk Analytics Inc</t>
+          <t>Old Dominion Freight Line Inc</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>VRSK</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0.26</v>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.25%</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>273.39</t>
+          <t>Trucking</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>(0.38%)</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Consulting Services</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -3608,28 +2913,19 @@
           <t>EA</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>0.25</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>138.42</t>
+          <t>Electronic Gaming &amp; Multimedia</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>(-0.33%)</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Electronic Gaming &amp; Multimedia</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -3641,36 +2937,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lululemon Athletica Inc</t>
+          <t>Diamondback Energy Inc</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LULU</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0.24</v>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>300.18</t>
+          <t>Oil &amp; Gas E&amp;P</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-1.49</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>(-0.49%)</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Apparel Retail</t>
+          <t>Energy</t>
         </is>
       </c>
     </row>
@@ -3682,36 +2969,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Diamondback Energy Inc</t>
+          <t>Fastenal Co</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FANG</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0.24</v>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>206.97</t>
+          <t>Industrial Distribution</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>(1.01%)</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Oil &amp; Gas E&amp;P</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
@@ -3723,36 +3001,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fastenal Co</t>
+          <t>GE HealthCare Technologies Inc</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FAST</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0.24</v>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>62.69</t>
+          <t>Health Information Services</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>(-0.11%)</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Industrial Distribution</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -3764,36 +3033,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Baker Hughes Co</t>
+          <t>Lululemon Athletica Inc</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BKR</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0.23</v>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>34.32</t>
+          <t>Apparel Retail</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-0.37</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>(-1.07%)</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Oil &amp; Gas Equipment &amp; Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
@@ -3805,36 +3065,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GE HealthCare Technologies Inc</t>
+          <t>Exelon Corp</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GEHC</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0.23</v>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.22%</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>Utilities - Regulated Electric</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>(1.27%)</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Health Information Services</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
@@ -3846,36 +3097,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Exelon Corp</t>
+          <t>Baker Hughes Co</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EXC</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0.23</v>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.22%</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>34.66</t>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>(0.36%)</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Utilities - Regulated Electric</t>
+          <t>Energy</t>
         </is>
       </c>
     </row>
@@ -3895,28 +3137,19 @@
           <t>BIIB</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>0.23</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22%</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>225.08</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-3.75</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>(-1.64%)</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -3936,28 +3169,19 @@
           <t>CTSH</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>0.23</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.22%</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>68.28</t>
+          <t>Information Technology Services</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>(-0.49%)</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Information Technology Services</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -3977,28 +3201,19 @@
           <t>CCEP</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0.22</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>73.58</t>
+          <t>Beverages - Non-Alcoholic</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>(1.15%)</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Beverages - Non-Alcoholic</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -4010,36 +3225,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CoStar Group Inc</t>
+          <t>ON Semiconductor Corp</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CSGP</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0.2</v>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>73.80</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-0.42</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>(-0.57%)</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Real Estate Services</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4059,28 +3265,19 @@
           <t>ZS</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>0.2</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>198.25</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>(0.81%)</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4092,36 +3289,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ON Semiconductor Corp</t>
+          <t>GLOBALFOUNDRIES Inc</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0.2</v>
+          <t>GFS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>(-0.32%)</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4133,36 +3321,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CDW Corp/DE</t>
+          <t>CoStar Group Inc</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CDW</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0.2</v>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>218.03</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-1.09</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>(-0.50%)</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Information Technology Services</t>
+          <t>Real Estate</t>
         </is>
       </c>
     </row>
@@ -4182,28 +3361,19 @@
           <t>XEL</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>0.2</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>52.74</t>
+          <t>Utilities - Regulated Electric</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>(-0.86%)</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Utilities - Regulated Electric</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
@@ -4215,36 +3385,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Atlassian Corp</t>
+          <t>CDW Corp/DE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TEAM</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0.19</v>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>182.18</t>
+          <t>Information Technology Services</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>(-0.05%)</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4264,28 +3425,19 @@
           <t>ANSS</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>0.19</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.19%</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>326.95</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>(-0.05%)</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Software - Application</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4297,36 +3449,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GLOBALFOUNDRIES Inc</t>
+          <t>Atlassian Corp</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GFS</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0.19</v>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.18%</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>50.88</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>(0.07%)</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4346,28 +3489,19 @@
           <t>TTWO</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>0.18</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>153.40</t>
+          <t>Electronic Gaming &amp; Multimedia</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-1.25</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>(-0.81%)</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Electronic Gaming &amp; Multimedia</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -4387,28 +3521,19 @@
           <t>DLTR</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>0.16</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>105.98</t>
+          <t>Discount Stores</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-1.14</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>(-1.06%)</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Discount Stores</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
     </row>
@@ -4420,36 +3545,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MongoDB Inc</t>
+          <t>ARM Holdings PLC ADR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MDB</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0.13</v>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>264.04</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>(1.60%)</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Software - Infrastructure</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4461,36 +3577,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ARM Holdings PLC ADR</t>
+          <t>MongoDB Inc</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0.13</v>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>167.44</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>(2.43%)</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -4510,28 +3617,19 @@
           <t>WBD</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>0.12</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>(0.76%)</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
+          <t>Communication Services</t>
         </is>
       </c>
     </row>
@@ -4551,28 +3649,19 @@
           <t>ILMN</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>0.11</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>105.37</t>
+          <t>Diagnostics &amp; Research</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>(-0.13%)</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Diagnostics &amp; Research</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
@@ -4592,69 +3681,19 @@
           <t>WBA</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>0.07000000000000001</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>Pharmaceutical Retailers</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>(-3.92%)</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Pharmaceutical Retailers</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>GRAIL Inc</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>GRAL</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>15.63</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>(3.82%)</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Diagnostics &amp; Research</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
